--- a/data/trans_orig/Q47-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>176,08</t>
+          <t>176,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>163,72</t>
+          <t>163,54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>170,11</t>
+          <t>170,7</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>174,93; 177,17</t>
+          <t>175,03; 177,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>162,69; 164,68</t>
+          <t>162,5; 164,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>169,05; 171,11</t>
+          <t>169,58; 171,9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>175,47</t>
+          <t>175,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>163,43</t>
+          <t>162,3</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>169,02</t>
+          <t>168,36</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>174,67; 176,28</t>
+          <t>174,82; 176,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>162,32; 164,08</t>
+          <t>158,97; 163,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>167,96; 169,77</t>
+          <t>164,58; 169,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>175,89</t>
+          <t>175,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>169,65</t>
+          <t>169,75</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>175,28; 176,51</t>
+          <t>175,3; 176,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>163,28; 164,12</t>
+          <t>163,28; 164,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>169,16; 170,16</t>
+          <t>169,26; 170,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>175,05</t>
+          <t>176,6</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>162,6</t>
+          <t>162,66</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>168,81</t>
+          <t>170,6</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>174,31; 176,46</t>
+          <t>174,35; 179,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>161,59; 163,06</t>
+          <t>161,83; 163,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>168,04; 170,51</t>
+          <t>168,28; 175,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>166,98</t>
+          <t>167,03</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>172,08; 173,17</t>
+          <t>172,08; 173,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>160,85; 161,63</t>
+          <t>160,85; 161,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>166,58; 167,47</t>
+          <t>166,62; 167,51</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>167,83</t>
+          <t>168,2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>167,92</t>
+          <t>168,17</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>168,87</t>
+          <t>169,3</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>169,07</t>
+          <t>169,82</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>156,98</t>
+          <t>157,47</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>157,89</t>
+          <t>158,42</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>158,12</t>
+          <t>158,58</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>158,87</t>
+          <t>158,27</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>161,61</t>
+          <t>162,42</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>162,37</t>
+          <t>163,12</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>162,91</t>
+          <t>163,67</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>163,09</t>
+          <t>162,63</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>167,33; 168,36</t>
+          <t>167,56; 168,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>167,29; 168,58</t>
+          <t>167,31; 168,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>168,32; 169,4</t>
+          <t>168,59; 170,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>168,67; 169,5</t>
+          <t>169,3; 170,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>156,47; 157,48</t>
+          <t>156,87; 158,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>157,35; 158,4</t>
+          <t>157,76; 159,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>157,65; 158,61</t>
+          <t>157,91; 159,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>157,74; 159,5</t>
+          <t>156,37; 160,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>161,14; 162,08</t>
+          <t>161,85; 163,01</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>161,87; 162,88</t>
+          <t>162,46; 163,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>162,42; 163,42</t>
+          <t>163,06; 164,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>160,88; 163,76</t>
+          <t>159,03; 164,84</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>173,18</t>
+          <t>167,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>173,12</t>
+          <t>167,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>173,85</t>
+          <t>168,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>173,73</t>
+          <t>168,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>160,89</t>
+          <t>156,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>161,03</t>
+          <t>157,37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>161,45</t>
+          <t>157,65</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>161,81</t>
+          <t>158,66</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>166,95</t>
+          <t>160,65</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>167,01</t>
+          <t>161,56</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>167,55</t>
+          <t>162,03</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>167,48</t>
+          <t>162,6</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>166,45; 168,14</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>166,62; 168,47</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>167,43; 169,19</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>167,5; 168,75</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>155,65; 157,24</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>156,68; 158,13</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>156,84; 158,47</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>158,21; 159,12</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>159,92; 161,41</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>160,78; 162,36</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>161,29; 162,72</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>162,14; 163,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>173,18</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>173,12</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>173,85</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>174,31</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>160,89</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>161,03</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>161,45</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>161,47</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>166,95</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>167,01</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>167,55</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>167,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>172,91; 173,42</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>172,85; 173,38</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>173,58; 174,12</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>173,41; 174,16</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>173,62; 176,07</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>160,66; 161,13</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>160,78; 161,24</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>161,21; 161,68</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>161,06; 162,12</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>160,16; 162,04</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>166,73; 167,16</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>166,79; 167,25</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>167,28; 167,77</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>166,84; 167,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>166,7; 169,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/Q47-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Edad-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>175,39; 176,52</t>
+          <t>175,4; 176,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>175,16; 176,63</t>
+          <t>175,22; 176,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>175,79; 177,08</t>
+          <t>175,73; 177,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>175,03; 177,59</t>
+          <t>175,0; 177,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>162,75; 163,89</t>
+          <t>162,76; 163,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>162,71; 163,92</t>
+          <t>162,72; 163,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>162,81; 164,03</t>
+          <t>162,79; 163,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>162,5; 164,53</t>
+          <t>162,52; 164,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>169,29; 170,37</t>
+          <t>169,25; 170,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>169,18; 170,48</t>
+          <t>169,11; 170,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>169,39; 170,67</t>
+          <t>169,42; 170,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>169,58; 171,9</t>
+          <t>169,64; 171,87</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>175,28; 176,34</t>
+          <t>175,27; 176,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>175,62; 176,65</t>
+          <t>175,58; 176,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>175,76; 177,03</t>
+          <t>175,72; 176,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>174,82; 176,48</t>
+          <t>174,88; 176,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>162,96; 164,01</t>
+          <t>163,02; 163,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>163,06; 164,2</t>
+          <t>163,12; 164,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>163,28; 164,28</t>
+          <t>163,33; 164,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>158,97; 163,94</t>
+          <t>159,2; 163,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>169,66; 170,64</t>
+          <t>169,64; 170,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>169,75; 170,81</t>
+          <t>169,68; 170,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>169,63; 170,79</t>
+          <t>169,67; 170,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>164,58; 169,86</t>
+          <t>164,65; 169,85</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>174,03; 175,05</t>
+          <t>174,01; 175,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>174,31; 175,42</t>
+          <t>174,29; 175,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>174,9; 176,06</t>
+          <t>174,93; 176,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>175,3; 176,51</t>
+          <t>175,23; 176,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>161,62; 162,65</t>
+          <t>161,67; 162,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>161,4; 162,4</t>
+          <t>161,41; 162,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>162,55; 163,6</t>
+          <t>162,62; 163,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>163,28; 164,13</t>
+          <t>163,26; 164,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>167,65; 168,56</t>
+          <t>167,59; 168,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>167,71; 168,69</t>
+          <t>167,69; 168,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>168,84; 169,85</t>
+          <t>168,86; 169,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>169,26; 170,25</t>
+          <t>169,26; 170,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>172,5; 173,74</t>
+          <t>172,46; 173,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>172,29; 173,36</t>
+          <t>172,24; 173,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>173,57; 174,79</t>
+          <t>173,58; 174,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>174,35; 179,24</t>
+          <t>174,35; 179,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>159,88; 161,01</t>
+          <t>159,92; 161,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>160,25; 161,28</t>
+          <t>160,25; 161,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>161,58; 162,61</t>
+          <t>161,53; 162,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>161,83; 163,08</t>
+          <t>161,84; 163,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>166,23; 167,39</t>
+          <t>166,17; 167,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>166,22; 167,29</t>
+          <t>166,22; 167,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>167,54; 168,67</t>
+          <t>167,59; 168,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>168,28; 175,58</t>
+          <t>168,29; 175,35</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>168,51; 169,94</t>
+          <t>168,45; 169,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>169,11; 170,38</t>
+          <t>169,16; 170,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>170,86; 172,28</t>
+          <t>170,84; 172,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>172,08; 173,16</t>
+          <t>172,14; 173,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>158,26; 159,45</t>
+          <t>158,28; 159,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>158,48; 159,69</t>
+          <t>158,54; 159,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>158,43; 159,6</t>
+          <t>158,42; 159,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>160,85; 161,62</t>
+          <t>160,84; 161,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>163,32; 164,51</t>
+          <t>163,37; 164,6</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>163,71; 164,86</t>
+          <t>163,74; 164,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>164,51; 165,86</t>
+          <t>164,62; 165,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>166,62; 167,51</t>
+          <t>166,63; 167,5</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>167,56; 168,85</t>
+          <t>167,55; 168,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>167,31; 168,97</t>
+          <t>167,36; 168,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>168,59; 170,06</t>
+          <t>168,55; 170,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169,3; 170,32</t>
+          <t>169,27; 170,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>156,87; 158,1</t>
+          <t>156,91; 158,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>157,76; 159,2</t>
+          <t>157,69; 159,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>157,91; 159,3</t>
+          <t>157,9; 159,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>156,37; 160,11</t>
+          <t>156,27; 160,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>161,85; 163,01</t>
+          <t>161,85; 163,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>162,46; 163,8</t>
+          <t>162,44; 163,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>163,06; 164,28</t>
+          <t>162,98; 164,32</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>159,03; 164,84</t>
+          <t>159,39; 164,86</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>166,45; 168,14</t>
+          <t>166,55; 168,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>166,62; 168,47</t>
+          <t>166,46; 168,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>167,43; 169,19</t>
+          <t>167,44; 169,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>167,5; 168,75</t>
+          <t>167,47; 168,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>155,65; 157,24</t>
+          <t>155,7; 157,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>156,68; 158,13</t>
+          <t>156,62; 158,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>156,84; 158,47</t>
+          <t>156,89; 158,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>158,21; 159,12</t>
+          <t>158,28; 159,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>159,92; 161,41</t>
+          <t>159,86; 161,33</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>160,78; 162,36</t>
+          <t>160,94; 162,34</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>161,29; 162,72</t>
+          <t>161,37; 162,79</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>162,14; 163,08</t>
+          <t>162,15; 163,07</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>172,91; 173,42</t>
+          <t>172,92; 173,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>172,85; 173,38</t>
+          <t>172,87; 173,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>173,58; 174,12</t>
+          <t>173,59; 174,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>173,62; 176,07</t>
+          <t>173,64; 176,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>160,66; 161,13</t>
+          <t>160,65; 161,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>160,78; 161,24</t>
+          <t>160,78; 161,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>161,21; 161,68</t>
+          <t>161,22; 161,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>160,16; 162,04</t>
+          <t>160,25; 162,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>166,73; 167,16</t>
+          <t>166,72; 167,18</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>166,79; 167,25</t>
+          <t>166,78; 167,24</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>167,28; 167,77</t>
+          <t>167,32; 167,8</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>166,7; 169,23</t>
+          <t>166,73; 169,32</t>
         </is>
       </c>
     </row>
